--- a/data/RawData/ObsData/2001-2009/01-12-2005.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-12-2005.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3C92FB-2CDC-4076-9DAB-50CD3E0D25BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E7810-E5A3-4AFA-8830-9AFF511F8AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{62E47A96-C147-4ED7-A676-27C07D47686F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{62E47A96-C147-4ED7-A676-27C07D47686F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2620" uniqueCount="1100">
   <si>
     <t>Mico</t>
   </si>
@@ -4690,30 +4690,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD0B457-D9AE-4B60-82BF-D74F14089D78}">
   <dimension ref="A1:P500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="L135" sqref="L135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1007</v>
       </c>
@@ -4732,7 +4732,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -4749,7 +4749,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>21</v>
       </c>
@@ -4770,7 +4770,7 @@
       <c r="N3" s="106"/>
       <c r="O3" s="106"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>26</v>
       </c>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="O5" s="109"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>31</v>
       </c>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="O6" s="108"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
       <c r="B7" s="38" t="s">
         <v>34</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="O7" s="108"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="38" t="s">
         <v>3</v>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="O8" s="108"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="38" t="s">
         <v>1008</v>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="O9" s="108"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="38" t="s">
         <v>4</v>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="O10" s="108"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
       <c r="B11" s="38" t="s">
         <v>5</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="O11" s="108"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="38" t="s">
         <v>6</v>
@@ -5107,7 +5107,7 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="38" t="s">
         <v>7</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="O13" s="60"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38" t="s">
         <v>8</v>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38" t="s">
         <v>9</v>
@@ -5216,7 +5216,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="25"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>40</v>
       </c>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="O17" s="63"/>
     </row>
-    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="44" t="s">
         <v>41</v>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="O18" s="65"/>
     </row>
-    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="44" t="s">
         <v>220</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="O19" s="63"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5356,7 +5356,7 @@
       <c r="E20" s="3"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>61</v>
       </c>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="O21" s="71"/>
     </row>
-    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>62</v>
       </c>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O22" s="71"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="52" t="s">
         <v>50</v>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="O23" s="71"/>
     </row>
-    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="52" t="s">
         <v>51</v>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="O24" s="71"/>
     </row>
-    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="52" t="s">
         <v>52</v>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="O25" s="71"/>
     </row>
-    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="52" t="s">
         <v>53</v>
@@ -5549,7 +5549,7 @@
       <c r="G26" s="48"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="52" t="s">
         <v>54</v>
@@ -5575,7 +5575,7 @@
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="52" t="s">
         <v>242</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="O28" s="39"/>
     </row>
-    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="52" t="s">
         <v>55</v>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O29" s="39"/>
     </row>
-    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="52" t="s">
         <v>56</v>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="O30" s="39"/>
     </row>
-    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="52" t="s">
         <v>57</v>
@@ -5729,7 +5729,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="52" t="s">
         <v>58</v>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="O32" s="39"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="52" t="s">
         <v>59</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="O33" s="39"/>
     </row>
-    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="O34" s="39"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>92</v>
       </c>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="O35" s="39"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>1099</v>
       </c>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="O36" s="39"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="46" t="s">
         <v>93</v>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="O37" s="39"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="46" t="s">
         <v>94</v>
@@ -5951,7 +5951,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="57"/>
       <c r="B39" s="46" t="s">
         <v>95</v>
@@ -5986,7 +5986,7 @@
       </c>
       <c r="O39" s="39"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="46" t="s">
         <v>96</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="O40" s="39"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="46" t="s">
         <v>1018</v>
@@ -6064,7 +6064,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="46" t="s">
         <v>1020</v>
@@ -6103,7 +6103,7 @@
       </c>
       <c r="O42" s="79"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="46" t="s">
         <v>1022</v>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="O43" s="39"/>
     </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="46" t="s">
         <v>1024</v>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="O44" s="39"/>
     </row>
-    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="46" t="s">
         <v>1026</v>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="O45" s="39"/>
     </row>
-    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="80"/>
       <c r="B46" s="81"/>
       <c r="C46" s="81"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="O46" s="39"/>
     </row>
-    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="84" t="s">
         <v>101</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="84" t="s">
         <v>102</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="O48" s="39"/>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="84"/>
       <c r="B49" s="85" t="s">
         <v>108</v>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="O49" s="39"/>
     </row>
-    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="84"/>
       <c r="B50" s="85" t="s">
         <v>110</v>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="O50" s="39"/>
     </row>
-    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="87"/>
       <c r="B51" s="88"/>
       <c r="C51" s="88"/>
@@ -6390,7 +6390,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>21</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="85" t="s">
         <v>22</v>
       </c>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="O53" s="39"/>
     </row>
-    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="86" t="s">
         <v>195</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="O54" s="39"/>
     </row>
-    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="86" t="s">
         <v>196</v>
       </c>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="O55" s="39"/>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="84"/>
       <c r="B56" s="84" t="s">
         <v>199</v>
@@ -6573,7 +6573,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="84"/>
       <c r="B57" s="84" t="s">
         <v>202</v>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="O57" s="39"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
       <c r="B58" s="90" t="s">
         <v>203</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="O58" s="39"/>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="90"/>
       <c r="B59" s="90" t="s">
         <v>204</v>
@@ -6680,7 +6680,7 @@
       </c>
       <c r="O59" s="39"/>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
       <c r="B60" s="90" t="s">
         <v>205</v>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="O60" s="39"/>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="91" t="s">
         <v>1099</v>
       </c>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="O61" s="39"/>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
       <c r="B62" s="90" t="s">
         <v>200</v>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="O62" s="39"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
       <c r="B63" s="90" t="s">
         <v>201</v>
@@ -6824,7 +6824,7 @@
       </c>
       <c r="O63" s="39"/>
     </row>
-    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
       <c r="B64" s="90" t="s">
         <v>206</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="O64" s="39"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
       <c r="B65" s="90" t="s">
         <v>207</v>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="O65" s="74"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
       <c r="B66" s="90" t="s">
         <v>208</v>
@@ -6900,7 +6900,7 @@
       <c r="G66" s="86"/>
       <c r="H66" s="19"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="90"/>
       <c r="B67" s="90" t="s">
         <v>209</v>
@@ -6935,7 +6935,7 @@
         <v>4081</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="96"/>
       <c r="B68" s="97"/>
       <c r="C68" s="97"/>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="O68" s="39"/>
     </row>
-    <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="84" t="s">
         <v>222</v>
       </c>
@@ -7003,7 +7003,7 @@
       </c>
       <c r="O69" s="39"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="84"/>
       <c r="B70" s="85" t="s">
         <v>229</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="O70" s="39"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="84"/>
       <c r="B71" s="85" t="s">
         <v>1034</v>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="O71" s="39"/>
     </row>
-    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="84"/>
       <c r="B72" s="85" t="s">
         <v>212</v>
@@ -7097,7 +7097,7 @@
       <c r="G72" s="85"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="84"/>
       <c r="B73" s="85" t="s">
         <v>1036</v>
@@ -7136,7 +7136,7 @@
         <v>4017</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="84"/>
       <c r="B74" s="85" t="s">
         <v>1037</v>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="O74" s="39"/>
     </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="84"/>
       <c r="B75" s="85" t="s">
         <v>1038</v>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O75" s="39"/>
     </row>
-    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="86"/>
       <c r="B76" s="85" t="s">
         <v>213</v>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="O76" s="39"/>
     </row>
-    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="86"/>
       <c r="B77" s="85" t="s">
         <v>214</v>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="O77" s="39"/>
     </row>
-    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="86"/>
       <c r="B78" s="85" t="s">
         <v>215</v>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="O78" s="39"/>
     </row>
-    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="84"/>
       <c r="B79" s="85" t="s">
         <v>216</v>
@@ -7358,7 +7358,7 @@
       </c>
       <c r="O79" s="39"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="86"/>
       <c r="B80" s="85" t="s">
         <v>217</v>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="O80" s="39"/>
     </row>
-    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="O81" s="39"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>236</v>
       </c>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="O82" s="39"/>
     </row>
-    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>236</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="H83" s="2"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="O84" s="39"/>
     </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="84" t="s">
         <v>341</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="O85" s="39"/>
     </row>
-    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="86" t="s">
         <v>1002</v>
       </c>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O86" s="39"/>
     </row>
-    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="86"/>
       <c r="B87" s="86" t="s">
         <v>128</v>
@@ -7610,7 +7610,7 @@
       </c>
       <c r="O87" s="39"/>
     </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="90"/>
       <c r="B88" s="86" t="s">
         <v>344</v>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="O88" s="39"/>
     </row>
-    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="90"/>
       <c r="B89" s="86" t="s">
         <v>345</v>
@@ -7659,7 +7659,7 @@
       <c r="G89" s="90"/>
       <c r="H89" s="23"/>
     </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="90"/>
       <c r="B90" s="86" t="s">
         <v>346</v>
@@ -7688,7 +7688,7 @@
       <c r="N90" s="99"/>
       <c r="O90" s="91"/>
     </row>
-    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="90"/>
       <c r="B91" s="86" t="s">
         <v>347</v>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="O91" s="91"/>
     </row>
-    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="90"/>
       <c r="B92" s="86" t="s">
         <v>348</v>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="O92" s="91"/>
     </row>
-    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="90"/>
       <c r="B93" s="86" t="s">
         <v>349</v>
@@ -7758,7 +7758,7 @@
       <c r="G93" s="90"/>
       <c r="H93" s="23"/>
     </row>
-    <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -7769,7 +7769,7 @@
       <c r="H94" s="23"/>
       <c r="O94" s="102"/>
     </row>
-    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="90" t="s">
         <v>351</v>
       </c>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="O95" s="84"/>
     </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="90" t="s">
         <v>352</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="90"/>
       <c r="B97" s="86" t="s">
         <v>337</v>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="O97" s="84"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="90"/>
       <c r="B98" s="86" t="s">
         <v>338</v>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="O98" s="84"/>
     </row>
-    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="90"/>
       <c r="B99" s="86" t="s">
         <v>353</v>
@@ -7926,7 +7926,7 @@
       </c>
       <c r="O99" s="99"/>
     </row>
-    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="90"/>
       <c r="B100" s="86" t="s">
         <v>339</v>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="O100" s="99"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="90"/>
       <c r="B101" s="86" t="s">
         <v>354</v>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="O101" s="99"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="90"/>
       <c r="B102" s="86" t="s">
         <v>355</v>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="O102" s="99"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="90"/>
       <c r="B103" s="86" t="s">
         <v>340</v>
@@ -8028,7 +8028,7 @@
       <c r="N103" s="24"/>
       <c r="O103" s="24"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="32"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -8052,7 +8052,7 @@
       <c r="N104" s="99"/>
       <c r="O104" s="99"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="90" t="s">
         <v>236</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="90" t="s">
         <v>236</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="N106" s="99"/>
       <c r="O106" s="99"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="32"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -8136,7 +8136,7 @@
       <c r="N107" s="99"/>
       <c r="O107" s="99"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="90" t="s">
         <v>357</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="N108" s="99"/>
       <c r="O108" s="99"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="90"/>
       <c r="B109" s="86" t="s">
         <v>359</v>
@@ -8188,7 +8188,7 @@
       <c r="N109" s="24"/>
       <c r="O109" s="24"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="32"/>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -8212,7 +8212,7 @@
       <c r="N110" s="99"/>
       <c r="O110" s="99"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="90" t="s">
         <v>362</v>
       </c>
@@ -8242,7 +8242,7 @@
       <c r="N111" s="99"/>
       <c r="O111" s="99"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="90"/>
       <c r="B112" s="86" t="s">
         <v>360</v>
@@ -8270,7 +8270,7 @@
       <c r="N112" s="99"/>
       <c r="O112" s="99"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="32"/>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -8292,7 +8292,7 @@
       <c r="N113" s="99"/>
       <c r="O113" s="99"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="90" t="s">
         <v>361</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="N114" s="99"/>
       <c r="O114" s="99"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="90"/>
       <c r="B115" s="86" t="s">
         <v>220</v>
@@ -8340,7 +8340,7 @@
       <c r="N115" s="99"/>
       <c r="O115" s="99"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="32"/>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -8358,7 +8358,7 @@
       <c r="N116" s="99"/>
       <c r="O116" s="99"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="93" t="s">
         <v>363</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="N117" s="24"/>
       <c r="O117" s="24"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="93" t="s">
         <v>364</v>
       </c>
@@ -8410,7 +8410,7 @@
       <c r="N118" s="24"/>
       <c r="O118" s="24"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="93"/>
       <c r="B119" s="94" t="s">
         <v>367</v>
@@ -8442,7 +8442,7 @@
       <c r="N119" s="99"/>
       <c r="O119" s="99"/>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -8464,7 +8464,7 @@
       <c r="N120" s="99"/>
       <c r="O120" s="99"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="69" t="s">
         <v>416</v>
       </c>
@@ -8488,7 +8488,7 @@
       <c r="N121" s="99"/>
       <c r="O121" s="99"/>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="99" t="s">
         <v>417</v>
       </c>
@@ -8516,7 +8516,7 @@
       <c r="N122" s="99"/>
       <c r="O122" s="99"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="99" t="s">
         <v>418</v>
       </c>
@@ -8542,7 +8542,7 @@
       <c r="N123" s="24"/>
       <c r="O123" s="24"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="69"/>
       <c r="B124" s="84" t="s">
         <v>421</v>
@@ -8574,7 +8574,7 @@
       <c r="N124" s="99"/>
       <c r="O124" s="99"/>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="69"/>
       <c r="B125" s="84" t="s">
         <v>422</v>
@@ -8602,7 +8602,7 @@
       <c r="N125" s="99"/>
       <c r="O125" s="99"/>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="69"/>
       <c r="B126" s="69" t="s">
         <v>431</v>
@@ -8630,7 +8630,7 @@
       <c r="N126" s="99"/>
       <c r="O126" s="99"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="69"/>
       <c r="B127" s="69" t="s">
         <v>432</v>
@@ -8654,7 +8654,7 @@
       <c r="N127" s="24"/>
       <c r="O127" s="24"/>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -8680,7 +8680,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="41" t="s">
         <v>236</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="41" t="s">
         <v>236</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="N130" s="69"/>
       <c r="O130" s="69"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="41" t="s">
         <v>236</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="N131" s="69"/>
       <c r="O131" s="69"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -8786,7 +8786,7 @@
       <c r="N132" s="69"/>
       <c r="O132" s="69"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="69" t="s">
         <v>436</v>
       </c>
@@ -8812,7 +8812,7 @@
       <c r="N133" s="33"/>
       <c r="O133" s="33"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="69"/>
       <c r="B134" s="69" t="s">
         <v>438</v>
@@ -8836,8 +8836,8 @@
         <v>409</v>
       </c>
       <c r="K134" s="69"/>
-      <c r="L134" s="99" t="s">
-        <v>409</v>
+      <c r="L134" s="99">
+        <v>2167</v>
       </c>
       <c r="M134" s="69" t="s">
         <v>29</v>
@@ -8846,7 +8846,7 @@
       <c r="O134" s="69"/>
       <c r="P134" s="33"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="69"/>
       <c r="B135" s="69" t="s">
         <v>439</v>
@@ -8872,7 +8872,7 @@
       <c r="O135" s="69"/>
       <c r="P135" s="33"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="69"/>
       <c r="B136" s="69" t="s">
         <v>440</v>
@@ -8898,7 +8898,7 @@
       <c r="O136" s="69"/>
       <c r="P136" s="33"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="69"/>
       <c r="B137" s="69" t="s">
         <v>441</v>
@@ -8924,7 +8924,7 @@
       <c r="O137" s="69"/>
       <c r="P137" s="33"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="69"/>
       <c r="B138" s="69" t="s">
         <v>442</v>
@@ -8946,7 +8946,7 @@
       <c r="O138" s="69"/>
       <c r="P138" s="33"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -8966,7 +8966,7 @@
       <c r="O139" s="69"/>
       <c r="P139" s="33"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="69" t="s">
         <v>443</v>
       </c>
@@ -8996,7 +8996,7 @@
       <c r="O140" s="69"/>
       <c r="P140" s="33"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="69" t="s">
         <v>444</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="O141" s="33"/>
       <c r="P141" s="33"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="69"/>
       <c r="B142" s="69" t="s">
         <v>436</v>
@@ -9050,7 +9050,7 @@
       <c r="O142" s="69"/>
       <c r="P142" s="33"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="69"/>
       <c r="B143" s="69" t="s">
         <v>447</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="P143" s="33"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="69"/>
       <c r="B144" s="69" t="s">
         <v>448</v>
@@ -9116,7 +9116,7 @@
       <c r="O144" s="69"/>
       <c r="P144" s="33"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="69"/>
       <c r="B145" s="69" t="s">
         <v>449</v>
@@ -9142,7 +9142,7 @@
       <c r="O145" s="69"/>
       <c r="P145" s="33"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="69"/>
       <c r="B146" s="69" t="s">
         <v>450</v>
@@ -9166,7 +9166,7 @@
       <c r="O146" s="69"/>
       <c r="P146" s="33"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -9188,7 +9188,7 @@
       <c r="O147" s="69"/>
       <c r="P147" s="33"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="69" t="s">
         <v>477</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="O148" s="33"/>
       <c r="P148" s="33"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="69"/>
       <c r="B149" s="69" t="s">
         <v>220</v>
@@ -9248,7 +9248,7 @@
       <c r="O149" s="69"/>
       <c r="P149" s="33"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -9274,7 +9274,7 @@
       <c r="O150" s="69"/>
       <c r="P150" s="33"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" s="99" t="s">
         <v>1001</v>
       </c>
@@ -9300,7 +9300,7 @@
       <c r="O151" s="69"/>
       <c r="P151" s="33"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" s="99" t="s">
         <v>478</v>
       </c>
@@ -9326,7 +9326,7 @@
       <c r="O152" s="33"/>
       <c r="P152" s="33"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" s="99" t="s">
         <v>479</v>
       </c>
@@ -9364,7 +9364,7 @@
       <c r="O153" s="69"/>
       <c r="P153" s="33"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="99"/>
       <c r="B154" s="99" t="s">
         <v>481</v>
@@ -9396,7 +9396,7 @@
       <c r="O154" s="69"/>
       <c r="P154" s="33"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" s="91"/>
       <c r="B155" s="99" t="s">
         <v>617</v>
@@ -9430,7 +9430,7 @@
       <c r="O155" s="69"/>
       <c r="P155" s="33"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="99"/>
       <c r="B156" s="99" t="s">
         <v>482</v>
@@ -9454,7 +9454,7 @@
       <c r="O156" s="115"/>
       <c r="P156" s="33"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="99"/>
       <c r="B157" s="99" t="s">
         <v>483</v>
@@ -9480,7 +9480,7 @@
       <c r="O157" s="33"/>
       <c r="P157" s="33"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" s="99"/>
       <c r="B158" s="99" t="s">
         <v>484</v>
@@ -9514,7 +9514,7 @@
       <c r="O158" s="41"/>
       <c r="P158" s="33"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="99"/>
       <c r="B159" s="99" t="s">
         <v>485</v>
@@ -9550,7 +9550,7 @@
       <c r="O159" s="41"/>
       <c r="P159" s="33"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="24"/>
       <c r="B160" s="24"/>
       <c r="C160" s="24"/>
@@ -9578,7 +9578,7 @@
       <c r="O160" s="41"/>
       <c r="P160" s="33"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="117" t="s">
         <v>509</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="O161" s="41"/>
       <c r="P161" s="33"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="117" t="s">
         <v>510</v>
       </c>
@@ -9644,7 +9644,7 @@
       <c r="O162" s="41"/>
       <c r="P162" s="33"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="117" t="s">
         <v>1031</v>
       </c>
@@ -9680,7 +9680,7 @@
       <c r="O163" s="41"/>
       <c r="P163" s="33"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="117" t="s">
         <v>511</v>
       </c>
@@ -9716,7 +9716,7 @@
       <c r="O164" s="98"/>
       <c r="P164" s="33"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="117"/>
       <c r="B165" s="99" t="s">
         <v>513</v>
@@ -9740,7 +9740,7 @@
       <c r="O165" s="24"/>
       <c r="P165" s="33"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="99"/>
       <c r="B166" s="99" t="s">
         <v>514</v>
@@ -9774,7 +9774,7 @@
       <c r="O166" s="99"/>
       <c r="P166" s="33"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="99"/>
       <c r="B167" s="99" t="s">
         <v>515</v>
@@ -9806,7 +9806,7 @@
       <c r="O167" s="99"/>
       <c r="P167" s="33"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="99"/>
       <c r="B168" s="99" t="s">
         <v>516</v>
@@ -9838,7 +9838,7 @@
       <c r="O168" s="99"/>
       <c r="P168" s="33"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="99"/>
       <c r="B169" s="99" t="s">
         <v>517</v>
@@ -9870,7 +9870,7 @@
       <c r="O169" s="99"/>
       <c r="P169" s="33"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="99"/>
       <c r="B170" s="99" t="s">
         <v>518</v>
@@ -9898,7 +9898,7 @@
       <c r="O170" s="99"/>
       <c r="P170" s="33"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="99"/>
       <c r="B171" s="99" t="s">
         <v>519</v>
@@ -9926,7 +9926,7 @@
       <c r="O171" s="99"/>
       <c r="P171" s="33"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
@@ -9952,7 +9952,7 @@
       <c r="O172" s="99"/>
       <c r="P172" s="33"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="99" t="s">
         <v>504</v>
       </c>
@@ -9980,7 +9980,7 @@
       <c r="O173" s="99"/>
       <c r="P173" s="33"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="99" t="s">
         <v>505</v>
       </c>
@@ -10012,7 +10012,7 @@
       <c r="O174" s="99"/>
       <c r="P174" s="33"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" s="99"/>
       <c r="B175" s="99" t="s">
         <v>507</v>
@@ -10042,7 +10042,7 @@
       <c r="O175" s="99"/>
       <c r="P175" s="33"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="99"/>
       <c r="B176" s="99" t="s">
         <v>508</v>
@@ -10074,7 +10074,7 @@
       <c r="O176" s="99"/>
       <c r="P176" s="33"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="99"/>
       <c r="B177" s="99" t="s">
         <v>520</v>
@@ -10106,7 +10106,7 @@
       <c r="O177" s="99"/>
       <c r="P177" s="33"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="99"/>
       <c r="B178" s="99" t="s">
         <v>521</v>
@@ -10138,7 +10138,7 @@
       <c r="O178" s="99"/>
       <c r="P178" s="33"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="99"/>
       <c r="B179" s="99" t="s">
         <v>522</v>
@@ -10168,7 +10168,7 @@
       <c r="O179" s="99"/>
       <c r="P179" s="33"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="24"/>
       <c r="B180" s="24"/>
       <c r="C180" s="24"/>
@@ -10192,7 +10192,7 @@
       <c r="O180" s="99"/>
       <c r="P180" s="33"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="99" t="s">
         <v>1051</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="H181" s="24"/>
       <c r="P181" s="33"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="99"/>
       <c r="B182" s="99" t="s">
         <v>1051</v>
@@ -10245,7 +10245,7 @@
       <c r="O182" s="20"/>
       <c r="P182" s="33"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="24"/>
       <c r="B183" s="24"/>
       <c r="C183" s="24"/>
@@ -10273,7 +10273,7 @@
       <c r="O183" s="98"/>
       <c r="P183" s="33"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="98" t="s">
         <v>524</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="O184" s="98"/>
       <c r="P184" s="33"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="98" t="s">
         <v>525</v>
       </c>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="O185" s="98"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="98"/>
       <c r="B186" s="98" t="s">
         <v>528</v>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="O186" s="98"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="98"/>
       <c r="B187" s="98" t="s">
         <v>531</v>
@@ -10406,7 +10406,7 @@
       <c r="N187" s="24"/>
       <c r="O187" s="20"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="98"/>
       <c r="B188" s="98" t="s">
         <v>532</v>
@@ -10439,7 +10439,7 @@
       <c r="N188" s="99"/>
       <c r="O188" s="117"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="98"/>
       <c r="B189" s="98" t="s">
         <v>529</v>
@@ -10470,7 +10470,7 @@
       <c r="N189" s="99"/>
       <c r="O189" s="117"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="24"/>
       <c r="B190" s="24"/>
       <c r="C190" s="24"/>
@@ -10493,7 +10493,7 @@
       <c r="N190" s="99"/>
       <c r="O190" s="117"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="99" t="s">
         <v>567</v>
       </c>
@@ -10512,7 +10512,7 @@
       <c r="N191" s="24"/>
       <c r="O191" s="20"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="99" t="s">
         <v>568</v>
       </c>
@@ -10539,7 +10539,7 @@
       <c r="N192" s="99"/>
       <c r="O192" s="99"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" s="99"/>
       <c r="B193" s="99" t="s">
         <v>570</v>
@@ -10570,7 +10570,7 @@
       <c r="N193" s="99"/>
       <c r="O193" s="99"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" s="99"/>
       <c r="B194" s="99" t="s">
         <v>571</v>
@@ -10599,7 +10599,7 @@
       <c r="N194" s="99"/>
       <c r="O194" s="99"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" s="99"/>
       <c r="B195" s="99" t="s">
         <v>572</v>
@@ -10628,7 +10628,7 @@
       <c r="N195" s="99"/>
       <c r="O195" s="99"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" s="99"/>
       <c r="B196" s="99" t="s">
         <v>573</v>
@@ -10653,7 +10653,7 @@
       <c r="N196" s="24"/>
       <c r="O196" s="20"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" s="99"/>
       <c r="B197" s="99" t="s">
         <v>574</v>
@@ -10680,7 +10680,7 @@
       <c r="N197" s="99"/>
       <c r="O197" s="117"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" s="99"/>
       <c r="B198" s="99" t="s">
         <v>575</v>
@@ -10707,7 +10707,7 @@
       <c r="N198" s="99"/>
       <c r="O198" s="117"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" s="99"/>
       <c r="B199" s="99" t="s">
         <v>576</v>
@@ -10732,7 +10732,7 @@
       <c r="N199" s="99"/>
       <c r="O199" s="117"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" s="99"/>
       <c r="B200" s="99" t="s">
         <v>577</v>
@@ -10761,7 +10761,7 @@
       <c r="N200" s="99"/>
       <c r="O200" s="117"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" s="99"/>
       <c r="B201" s="99" t="s">
         <v>578</v>
@@ -10790,7 +10790,7 @@
       <c r="N201" s="99"/>
       <c r="O201" s="117"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" s="99"/>
       <c r="B202" s="99" t="s">
         <v>579</v>
@@ -10815,7 +10815,7 @@
       <c r="N202" s="99"/>
       <c r="O202" s="117"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" s="99"/>
       <c r="B203" s="99" t="s">
         <v>580</v>
@@ -10844,7 +10844,7 @@
       <c r="N203" s="99"/>
       <c r="O203" s="117"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" s="99"/>
       <c r="B204" s="99" t="s">
         <v>581</v>
@@ -10873,7 +10873,7 @@
       <c r="N204" s="99"/>
       <c r="O204" s="117"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H205" s="24"/>
       <c r="I205" s="99"/>
       <c r="J205" s="99" t="s">
@@ -10889,7 +10889,7 @@
       <c r="N205" s="99"/>
       <c r="O205" s="117"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" s="69" t="s">
         <v>1064</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="N206" s="99"/>
       <c r="O206" s="117"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" s="69" t="s">
         <v>1065</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="N207" s="99"/>
       <c r="O207" s="117"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" s="69"/>
       <c r="B208" s="69" t="s">
         <v>1066</v>
@@ -10968,7 +10968,7 @@
       <c r="N208" s="99"/>
       <c r="O208" s="99"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" s="69"/>
       <c r="B209" s="69" t="s">
         <v>1067</v>
@@ -10997,7 +10997,7 @@
       <c r="N209" s="99"/>
       <c r="O209" s="99"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="69"/>
       <c r="B210" s="69" t="s">
         <v>1068</v>
@@ -11026,7 +11026,7 @@
       <c r="N210" s="99"/>
       <c r="O210" s="99"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" s="123"/>
       <c r="B211" s="123"/>
       <c r="C211" s="123"/>
@@ -11043,7 +11043,7 @@
       <c r="N211" s="24"/>
       <c r="O211" s="24"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" s="69" t="s">
         <v>1069</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" s="69"/>
       <c r="B213" s="69" t="s">
         <v>1071</v>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="O213" s="99"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" s="69" t="s">
         <v>1031</v>
       </c>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="O214" s="99"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="69"/>
       <c r="B215" s="69" t="s">
         <v>1073</v>
@@ -11185,7 +11185,7 @@
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H216" s="24"/>
       <c r="I216" s="99" t="s">
         <v>560</v>
@@ -11197,7 +11197,7 @@
       <c r="N216" s="99"/>
       <c r="O216" s="99"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" s="24"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -11224,7 +11224,7 @@
         <v>4821</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" s="99" t="s">
         <v>583</v>
       </c>
@@ -11251,7 +11251,7 @@
       <c r="N218" s="99"/>
       <c r="O218" s="99"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="99" t="s">
         <v>592</v>
       </c>
@@ -11280,7 +11280,7 @@
       <c r="N219" s="99"/>
       <c r="O219" s="99"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="99"/>
       <c r="B220" s="99" t="s">
         <v>594</v>
@@ -11305,7 +11305,7 @@
       <c r="N220" s="99"/>
       <c r="O220" s="99"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="99"/>
       <c r="B221" s="99" t="s">
         <v>599</v>
@@ -11330,7 +11330,7 @@
       <c r="N221" s="99"/>
       <c r="O221" s="99"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" s="99"/>
       <c r="B222" s="99" t="s">
         <v>600</v>
@@ -11353,7 +11353,7 @@
       <c r="N222" s="24"/>
       <c r="O222" s="24"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" s="91"/>
       <c r="B223" s="99" t="s">
         <v>598</v>
@@ -11378,7 +11378,7 @@
       <c r="N223" s="99"/>
       <c r="O223" s="99"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" s="99"/>
       <c r="B224" s="99" t="s">
         <v>601</v>
@@ -11411,7 +11411,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225" s="99"/>
       <c r="B225" s="99" t="s">
         <v>602</v>
@@ -11442,7 +11442,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226" s="99"/>
       <c r="B226" s="99" t="s">
         <v>606</v>
@@ -11471,7 +11471,7 @@
       <c r="N226" s="99"/>
       <c r="O226" s="99"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227" s="99"/>
       <c r="B227" s="99" t="s">
         <v>603</v>
@@ -11500,7 +11500,7 @@
       <c r="N227" s="99"/>
       <c r="O227" s="99"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228" s="99"/>
       <c r="B228" s="99" t="s">
         <v>604</v>
@@ -11525,7 +11525,7 @@
       <c r="N228" s="99"/>
       <c r="O228" s="99"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229" s="99"/>
       <c r="B229" s="99" t="s">
         <v>605</v>
@@ -11544,7 +11544,7 @@
       <c r="N229" s="24"/>
       <c r="O229" s="24"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B230" s="24"/>
       <c r="C230" s="24"/>
       <c r="D230" s="24"/>
@@ -11553,7 +11553,7 @@
       <c r="G230" s="24"/>
       <c r="H230" s="24"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="24"/>
       <c r="B231" s="24"/>
       <c r="C231" s="24"/>
@@ -11580,7 +11580,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="99" t="s">
         <v>620</v>
       </c>
@@ -11607,7 +11607,7 @@
       <c r="N232" s="99"/>
       <c r="O232" s="99"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233" s="99" t="s">
         <v>621</v>
       </c>
@@ -11638,7 +11638,7 @@
       <c r="N233" s="99"/>
       <c r="O233" s="99"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="99" t="s">
         <v>622</v>
       </c>
@@ -11669,7 +11669,7 @@
       <c r="N234" s="99"/>
       <c r="O234" s="99"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="99"/>
       <c r="B235" s="99" t="s">
         <v>625</v>
@@ -11692,7 +11692,7 @@
       <c r="N235" s="24"/>
       <c r="O235" s="24"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236" s="99"/>
       <c r="B236" s="99" t="s">
         <v>626</v>
@@ -11717,7 +11717,7 @@
       <c r="N236" s="99"/>
       <c r="O236" s="99"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237" s="99"/>
       <c r="B237" s="99" t="s">
         <v>627</v>
@@ -11748,7 +11748,7 @@
       <c r="N237" s="99"/>
       <c r="O237" s="99"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238" s="99"/>
       <c r="B238" s="99" t="s">
         <v>628</v>
@@ -11777,7 +11777,7 @@
       <c r="N238" s="99"/>
       <c r="O238" s="99"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239" s="99"/>
       <c r="B239" s="99" t="s">
         <v>629</v>
@@ -11808,7 +11808,7 @@
         <v>4621</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240" s="99"/>
       <c r="B240" s="99" t="s">
         <v>630</v>
@@ -11837,7 +11837,7 @@
       <c r="N240" s="99"/>
       <c r="O240" s="99"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241" s="99"/>
       <c r="B241" s="99" t="s">
         <v>631</v>
@@ -11866,7 +11866,7 @@
       <c r="N241" s="99"/>
       <c r="O241" s="99"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242" s="99"/>
       <c r="B242" s="99" t="s">
         <v>637</v>
@@ -11895,7 +11895,7 @@
       <c r="N242" s="99"/>
       <c r="O242" s="99"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243" s="99"/>
       <c r="B243" s="99" t="s">
         <v>638</v>
@@ -11918,7 +11918,7 @@
       <c r="N243" s="24"/>
       <c r="O243" s="24"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244" s="99"/>
       <c r="B244" s="99" t="s">
         <v>632</v>
@@ -11949,7 +11949,7 @@
       <c r="N244" s="99"/>
       <c r="O244" s="99"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245" s="99"/>
       <c r="B245" s="99" t="s">
         <v>633</v>
@@ -11980,7 +11980,7 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246" s="99"/>
       <c r="B246" s="99" t="s">
         <v>634</v>
@@ -12009,7 +12009,7 @@
       <c r="N246" s="99"/>
       <c r="O246" s="99"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247" s="99"/>
       <c r="B247" s="99" t="s">
         <v>635</v>
@@ -12028,7 +12028,7 @@
       <c r="N247" s="24"/>
       <c r="O247" s="24"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248" s="99"/>
       <c r="B248" s="99" t="s">
         <v>636</v>
@@ -12049,7 +12049,7 @@
       <c r="N248" s="99"/>
       <c r="O248" s="99"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249" s="24"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -12076,7 +12076,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250" s="99" t="s">
         <v>658</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251" s="99"/>
       <c r="B251" s="99" t="s">
         <v>660</v>
@@ -12138,7 +12138,7 @@
       <c r="N251" s="99"/>
       <c r="O251" s="99"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252" s="99"/>
       <c r="B252" s="99" t="s">
         <v>661</v>
@@ -12167,7 +12167,7 @@
       <c r="N252" s="99"/>
       <c r="O252" s="99"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253" s="99"/>
       <c r="B253" s="99" t="s">
         <v>662</v>
@@ -12196,7 +12196,7 @@
       <c r="N253" s="99"/>
       <c r="O253" s="99"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254" s="99"/>
       <c r="B254" s="99" t="s">
         <v>663</v>
@@ -12225,7 +12225,7 @@
       <c r="N254" s="99"/>
       <c r="O254" s="99"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255" s="99"/>
       <c r="B255" s="99" t="s">
         <v>664</v>
@@ -12254,7 +12254,7 @@
       <c r="N255" s="99"/>
       <c r="O255" s="99"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256" s="24"/>
       <c r="B256" s="24"/>
       <c r="C256" s="24"/>
@@ -12277,7 +12277,7 @@
       <c r="N256" s="99"/>
       <c r="O256" s="99"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257" s="99" t="s">
         <v>675</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="N257" s="24"/>
       <c r="O257" s="24"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258" s="99"/>
       <c r="B258" s="99" t="s">
         <v>677</v>
@@ -12327,7 +12327,7 @@
       <c r="N258" s="99"/>
       <c r="O258" s="99"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259" s="99"/>
       <c r="B259" s="99" t="s">
         <v>678</v>
@@ -12358,7 +12358,7 @@
       <c r="N259" s="99"/>
       <c r="O259" s="99"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260" s="99"/>
       <c r="B260" s="99" t="s">
         <v>679</v>
@@ -12389,7 +12389,7 @@
       <c r="N260" s="99"/>
       <c r="O260" s="99"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261" s="99"/>
       <c r="B261" s="99" t="s">
         <v>680</v>
@@ -12418,7 +12418,7 @@
       <c r="N261" s="99"/>
       <c r="O261" s="99"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262" s="99"/>
       <c r="B262" s="99" t="s">
         <v>681</v>
@@ -12447,7 +12447,7 @@
       <c r="N262" s="99"/>
       <c r="O262" s="99"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263" s="99"/>
       <c r="B263" s="99" t="s">
         <v>682</v>
@@ -12476,7 +12476,7 @@
       <c r="N263" s="99"/>
       <c r="O263" s="99"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264" s="99"/>
       <c r="B264" s="99" t="s">
         <v>683</v>
@@ -12501,7 +12501,7 @@
       <c r="N264" s="99"/>
       <c r="O264" s="99"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265" s="99"/>
       <c r="B265" s="99" t="s">
         <v>684</v>
@@ -12526,7 +12526,7 @@
       <c r="N265" s="99"/>
       <c r="O265" s="99"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266" s="99"/>
       <c r="B266" s="99" t="s">
         <v>685</v>
@@ -12549,7 +12549,7 @@
       <c r="N266" s="24"/>
       <c r="O266" s="24"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267" s="99"/>
       <c r="B267" s="99" t="s">
         <v>686</v>
@@ -12580,7 +12580,7 @@
       <c r="N267" s="99"/>
       <c r="O267" s="99"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268" s="99"/>
       <c r="B268" s="99" t="s">
         <v>687</v>
@@ -12609,7 +12609,7 @@
       <c r="N268" s="99"/>
       <c r="O268" s="99"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269" s="99"/>
       <c r="B269" s="99" t="s">
         <v>691</v>
@@ -12638,7 +12638,7 @@
       <c r="N269" s="99"/>
       <c r="O269" s="99"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270" s="99"/>
       <c r="B270" s="99" t="s">
         <v>688</v>
@@ -12667,7 +12667,7 @@
       <c r="N270" s="99"/>
       <c r="O270" s="99"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271" s="99"/>
       <c r="B271" s="99" t="s">
         <v>689</v>
@@ -12692,7 +12692,7 @@
       <c r="N271" s="99"/>
       <c r="O271" s="99"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272" s="99"/>
       <c r="B272" s="99" t="s">
         <v>690</v>
@@ -12717,7 +12717,7 @@
       <c r="N272" s="99"/>
       <c r="O272" s="99"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273" s="24"/>
       <c r="B273" s="24"/>
       <c r="C273" s="24"/>
@@ -12740,7 +12740,7 @@
       <c r="N273" s="99"/>
       <c r="O273" s="99"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="99" t="s">
         <v>717</v>
       </c>
@@ -12765,7 +12765,7 @@
       <c r="N274" s="99"/>
       <c r="O274" s="99"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="99" t="s">
         <v>718</v>
       </c>
@@ -12792,7 +12792,7 @@
       <c r="N275" s="24"/>
       <c r="O275" s="24"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="99" t="s">
         <v>719</v>
       </c>
@@ -12827,7 +12827,7 @@
       <c r="N276" s="99"/>
       <c r="O276" s="99"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="99"/>
       <c r="B277" s="99" t="s">
         <v>722</v>
@@ -12862,7 +12862,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278" s="99"/>
       <c r="B278" s="99" t="s">
         <v>723</v>
@@ -12895,7 +12895,7 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279" s="99"/>
       <c r="B279" s="99" t="s">
         <v>713</v>
@@ -12926,7 +12926,7 @@
       <c r="N279" s="99"/>
       <c r="O279" s="99"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="99"/>
       <c r="B280" s="99" t="s">
         <v>724</v>
@@ -12957,7 +12957,7 @@
       <c r="N280" s="99"/>
       <c r="O280" s="99"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="99"/>
       <c r="B281" s="99" t="s">
         <v>725</v>
@@ -12988,7 +12988,7 @@
       <c r="N281" s="99"/>
       <c r="O281" s="99"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="99"/>
       <c r="B282" s="99" t="s">
         <v>726</v>
@@ -13019,7 +13019,7 @@
       <c r="N282" s="99"/>
       <c r="O282" s="99"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="99"/>
       <c r="B283" s="99" t="s">
         <v>727</v>
@@ -13050,7 +13050,7 @@
       <c r="N283" s="99"/>
       <c r="O283" s="99"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="24"/>
       <c r="B284" s="24"/>
       <c r="C284" s="24"/>
@@ -13069,7 +13069,7 @@
       <c r="N284" s="24"/>
       <c r="O284" s="24"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285" s="99" t="s">
         <v>620</v>
       </c>
@@ -13096,7 +13096,7 @@
       <c r="N285" s="99"/>
       <c r="O285" s="99"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286" s="99" t="s">
         <v>728</v>
       </c>
@@ -13128,7 +13128,7 @@
       <c r="N286" s="99"/>
       <c r="O286" s="99"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287" s="99"/>
       <c r="B287" s="99" t="s">
         <v>730</v>
@@ -13157,7 +13157,7 @@
       <c r="N287" s="99"/>
       <c r="O287" s="99"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288" s="99"/>
       <c r="B288" s="99" t="s">
         <v>731</v>
@@ -13186,7 +13186,7 @@
       <c r="N288" s="99"/>
       <c r="O288" s="99"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="99"/>
       <c r="B289" s="99" t="s">
         <v>732</v>
@@ -13215,7 +13215,7 @@
       <c r="N289" s="99"/>
       <c r="O289" s="99"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290" s="99"/>
       <c r="B290" s="99" t="s">
         <v>733</v>
@@ -13238,7 +13238,7 @@
       <c r="N290" s="24"/>
       <c r="O290" s="24"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291" s="99"/>
       <c r="B291" s="99" t="s">
         <v>734</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="O291" s="99"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292" s="99"/>
       <c r="B292" s="99" t="s">
         <v>735</v>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="O292" s="99"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293" s="99"/>
       <c r="B293" s="99" t="s">
         <v>736</v>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="O293" s="99"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="99"/>
       <c r="B294" s="99" t="s">
         <v>739</v>
@@ -13364,7 +13364,7 @@
       </c>
       <c r="O294" s="99"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="99"/>
       <c r="B295" s="99" t="s">
         <v>737</v>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="O295" s="99"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="99"/>
       <c r="B296" s="99" t="s">
         <v>738</v>
@@ -13418,7 +13418,7 @@
       </c>
       <c r="O296" s="99"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="99" t="s">
         <v>741</v>
       </c>
@@ -13437,7 +13437,7 @@
       <c r="N297" s="24"/>
       <c r="O297" s="24"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="99" t="s">
         <v>742</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="N298" s="99"/>
       <c r="O298" s="99"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="91"/>
       <c r="B299" s="99" t="s">
         <v>744</v>
@@ -13497,7 +13497,7 @@
       <c r="N299" s="99"/>
       <c r="O299" s="99"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="99"/>
       <c r="B300" s="99" t="s">
         <v>745</v>
@@ -13528,7 +13528,7 @@
       <c r="N300" s="99"/>
       <c r="O300" s="99"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="99"/>
       <c r="B301" s="99" t="s">
         <v>746</v>
@@ -13557,7 +13557,7 @@
       <c r="N301" s="99"/>
       <c r="O301" s="99"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="99"/>
       <c r="B302" s="99" t="s">
         <v>747</v>
@@ -13586,7 +13586,7 @@
       <c r="N302" s="99"/>
       <c r="O302" s="99"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="99"/>
       <c r="B303" s="99" t="s">
         <v>748</v>
@@ -13615,7 +13615,7 @@
       <c r="N303" s="99"/>
       <c r="O303" s="99"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="99"/>
       <c r="B304" s="99" t="s">
         <v>749</v>
@@ -13646,7 +13646,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305" s="24"/>
       <c r="B305" s="24"/>
       <c r="C305" s="24"/>
@@ -13668,7 +13668,7 @@
       <c r="N305" s="99"/>
       <c r="O305" s="99"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306" s="99" t="s">
         <v>756</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="N306" s="99"/>
       <c r="O306" s="99"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307" s="99"/>
       <c r="B307" s="99" t="s">
         <v>758</v>
@@ -13732,7 +13732,7 @@
       <c r="N307" s="99"/>
       <c r="O307" s="99"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308" s="99"/>
       <c r="B308" s="99" t="s">
         <v>759</v>
@@ -13763,7 +13763,7 @@
       <c r="N308" s="99"/>
       <c r="O308" s="99"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309" s="99"/>
       <c r="B309" s="99" t="s">
         <v>760</v>
@@ -13794,7 +13794,7 @@
       <c r="N309" s="99"/>
       <c r="O309" s="99"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310" s="99"/>
       <c r="B310" s="99" t="s">
         <v>761</v>
@@ -13825,7 +13825,7 @@
       <c r="N310" s="99"/>
       <c r="O310" s="99"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311" s="99"/>
       <c r="B311" s="99" t="s">
         <v>762</v>
@@ -13856,7 +13856,7 @@
       <c r="N311" s="99"/>
       <c r="O311" s="99"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312" s="99"/>
       <c r="B312" s="99" t="s">
         <v>763</v>
@@ -13887,7 +13887,7 @@
       <c r="N312" s="99"/>
       <c r="O312" s="99"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313" s="99"/>
       <c r="B313" s="99" t="s">
         <v>764</v>
@@ -13918,7 +13918,7 @@
       <c r="N313" s="99"/>
       <c r="O313" s="99"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314" s="99"/>
       <c r="B314" s="99" t="s">
         <v>765</v>
@@ -13942,7 +13942,7 @@
       <c r="N314" s="24"/>
       <c r="O314" s="24"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315" s="99"/>
       <c r="B315" s="99" t="s">
         <v>766</v>
@@ -13973,7 +13973,7 @@
       <c r="N315" s="99"/>
       <c r="O315" s="99"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316" s="99"/>
       <c r="B316" s="99" t="s">
         <v>767</v>
@@ -14004,7 +14004,7 @@
       <c r="N316" s="99"/>
       <c r="O316" s="99"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317" s="99"/>
       <c r="B317" s="99" t="s">
         <v>768</v>
@@ -14035,7 +14035,7 @@
       <c r="N317" s="99"/>
       <c r="O317" s="99"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318" s="99"/>
       <c r="B318" s="99" t="s">
         <v>769</v>
@@ -14066,7 +14066,7 @@
       <c r="N318" s="99"/>
       <c r="O318" s="99"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319" s="99"/>
       <c r="B319" s="99" t="s">
         <v>770</v>
@@ -14097,7 +14097,7 @@
       <c r="N319" s="99"/>
       <c r="O319" s="99"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320" s="24"/>
       <c r="B320" s="24"/>
       <c r="C320" s="24"/>
@@ -14120,7 +14120,7 @@
       <c r="N320" s="99"/>
       <c r="O320" s="99"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A321" s="99" t="s">
         <v>810</v>
       </c>
@@ -14145,7 +14145,7 @@
       <c r="N321" s="99"/>
       <c r="O321" s="99"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A322" s="99" t="s">
         <v>811</v>
       </c>
@@ -14172,7 +14172,7 @@
       <c r="N322" s="99"/>
       <c r="O322" s="99"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A323" s="99"/>
       <c r="B323" s="99" t="s">
         <v>813</v>
@@ -14197,7 +14197,7 @@
       <c r="N323" s="99"/>
       <c r="O323" s="99"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A324" s="99"/>
       <c r="B324" s="99" t="s">
         <v>814</v>
@@ -14219,7 +14219,7 @@
       <c r="N324" s="24"/>
       <c r="O324" s="24"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A325" s="99"/>
       <c r="B325" s="99" t="s">
         <v>815</v>
@@ -14254,7 +14254,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A326" s="99"/>
       <c r="B326" s="99" t="s">
         <v>816</v>
@@ -14277,7 +14277,7 @@
       <c r="N326" s="24"/>
       <c r="O326" s="24"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A327" s="99"/>
       <c r="B327" s="99" t="s">
         <v>817</v>
@@ -14302,7 +14302,7 @@
       <c r="N327" s="98"/>
       <c r="O327" s="98"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A328" s="99"/>
       <c r="B328" s="99" t="s">
         <v>818</v>
@@ -14333,7 +14333,7 @@
       <c r="N328" s="98"/>
       <c r="O328" s="98"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A329" s="24"/>
       <c r="B329" s="24"/>
       <c r="C329" s="24"/>
@@ -14358,7 +14358,7 @@
       <c r="N329" s="98"/>
       <c r="O329" s="98"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A330" s="99" t="s">
         <v>819</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="N330" s="24"/>
       <c r="O330" s="24"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A331" s="99"/>
       <c r="B331" s="99" t="s">
         <v>821</v>
@@ -14414,7 +14414,7 @@
       <c r="N331" s="99"/>
       <c r="O331" s="99"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A332" s="99"/>
       <c r="B332" s="99" t="s">
         <v>822</v>
@@ -14443,7 +14443,7 @@
       <c r="N332" s="99"/>
       <c r="O332" s="99"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A333" s="99"/>
       <c r="B333" s="99" t="s">
         <v>823</v>
@@ -14466,7 +14466,7 @@
       <c r="N333" s="24"/>
       <c r="O333" s="24"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A334" s="99"/>
       <c r="B334" s="99" t="s">
         <v>824</v>
@@ -14491,7 +14491,7 @@
       <c r="N334" s="99"/>
       <c r="O334" s="99"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A335" s="99"/>
       <c r="B335" s="99" t="s">
         <v>825</v>
@@ -14522,7 +14522,7 @@
       <c r="N335" s="99"/>
       <c r="O335" s="99"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A336" s="99"/>
       <c r="B336" s="99" t="s">
         <v>826</v>
@@ -14553,7 +14553,7 @@
       <c r="N336" s="99"/>
       <c r="O336" s="99"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A337" s="24"/>
       <c r="B337" s="24"/>
       <c r="C337" s="24"/>
@@ -14576,7 +14576,7 @@
       <c r="N337" s="99"/>
       <c r="O337" s="99"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A338" s="99" t="s">
         <v>827</v>
       </c>
@@ -14607,7 +14607,7 @@
       <c r="N338" s="99"/>
       <c r="O338" s="99"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A339" s="99"/>
       <c r="B339" s="99" t="s">
         <v>829</v>
@@ -14636,7 +14636,7 @@
       <c r="N339" s="99"/>
       <c r="O339" s="99"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A340" s="99"/>
       <c r="B340" s="99" t="s">
         <v>830</v>
@@ -14665,7 +14665,7 @@
       <c r="N340" s="99"/>
       <c r="O340" s="99"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A341" s="99"/>
       <c r="B341" s="99" t="s">
         <v>831</v>
@@ -14690,7 +14690,7 @@
       <c r="N341" s="99"/>
       <c r="O341" s="99"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A342" s="99"/>
       <c r="B342" s="99" t="s">
         <v>832</v>
@@ -14715,7 +14715,7 @@
       <c r="N342" s="99"/>
       <c r="O342" s="99"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A343" s="24"/>
       <c r="B343" s="24"/>
       <c r="C343" s="24"/>
@@ -14732,7 +14732,7 @@
       <c r="N343" s="120"/>
       <c r="O343" s="120"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A344" s="99" t="s">
         <v>841</v>
       </c>
@@ -14759,7 +14759,7 @@
       <c r="N344" s="24"/>
       <c r="O344" s="24"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A345" s="99"/>
       <c r="B345" s="99" t="s">
         <v>843</v>
@@ -14792,7 +14792,7 @@
       </c>
       <c r="O345" s="99"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A346" s="99"/>
       <c r="B346" s="99" t="s">
         <v>844</v>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="O346" s="99"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A347" s="99"/>
       <c r="B347" s="99" t="s">
         <v>841</v>
@@ -14854,7 +14854,7 @@
       </c>
       <c r="O347" s="99"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A348" s="99"/>
       <c r="B348" s="99" t="s">
         <v>845</v>
@@ -14885,7 +14885,7 @@
       </c>
       <c r="O348" s="99"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A349" s="24"/>
       <c r="B349" s="24"/>
       <c r="C349" s="24"/>
@@ -14910,7 +14910,7 @@
       </c>
       <c r="O349" s="99"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A350" s="121"/>
       <c r="B350" s="122"/>
       <c r="C350" s="122"/>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="O350" s="99"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A351" s="99" t="s">
         <v>875</v>
       </c>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="O351" s="91"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A352" s="99" t="s">
         <v>876</v>
       </c>
@@ -14989,7 +14989,7 @@
       <c r="N352" s="24"/>
       <c r="O352" s="24"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A353" s="99"/>
       <c r="B353" s="99" t="s">
         <v>879</v>
@@ -15022,7 +15022,7 @@
         <v>4750</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A354" s="99"/>
       <c r="B354" s="99" t="s">
         <v>880</v>
@@ -15051,7 +15051,7 @@
       <c r="N354" s="99"/>
       <c r="O354" s="99"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A355" s="99"/>
       <c r="B355" s="99" t="s">
         <v>881</v>
@@ -15080,7 +15080,7 @@
       <c r="N355" s="99"/>
       <c r="O355" s="99"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A356" s="99"/>
       <c r="B356" s="99" t="s">
         <v>882</v>
@@ -15109,7 +15109,7 @@
       <c r="N356" s="99"/>
       <c r="O356" s="99"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A357" s="99"/>
       <c r="B357" s="99" t="s">
         <v>883</v>
@@ -15138,7 +15138,7 @@
       <c r="N357" s="99"/>
       <c r="O357" s="99"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A358" s="99"/>
       <c r="B358" s="99" t="s">
         <v>884</v>
@@ -15167,7 +15167,7 @@
       <c r="N358" s="99"/>
       <c r="O358" s="99"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A359" s="24"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -15186,7 +15186,7 @@
       <c r="N359" s="99"/>
       <c r="O359" s="99"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A360" s="99" t="s">
         <v>885</v>
       </c>
@@ -15211,7 +15211,7 @@
       <c r="N360" s="24"/>
       <c r="O360" s="24"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A361" s="99" t="s">
         <v>886</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="N361" s="99"/>
       <c r="O361" s="99"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A362" s="99"/>
       <c r="B362" s="99" t="s">
         <v>889</v>
@@ -15269,7 +15269,7 @@
       <c r="N362" s="99"/>
       <c r="O362" s="99"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A363" s="99"/>
       <c r="B363" s="99" t="s">
         <v>890</v>
@@ -15298,7 +15298,7 @@
       <c r="N363" s="99"/>
       <c r="O363" s="99"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A364" s="99"/>
       <c r="B364" s="99" t="s">
         <v>891</v>
@@ -15327,7 +15327,7 @@
       <c r="N364" s="99"/>
       <c r="O364" s="99"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A365" s="24"/>
       <c r="B365" s="24"/>
       <c r="C365" s="24"/>
@@ -15350,7 +15350,7 @@
       <c r="N365" s="91"/>
       <c r="O365" s="91"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A366" s="99" t="s">
         <v>810</v>
       </c>
@@ -15362,7 +15362,7 @@
       <c r="G366" s="99"/>
       <c r="H366" s="24"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A367" s="99" t="s">
         <v>892</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="N367" s="69"/>
       <c r="O367" s="69"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A368" s="91"/>
       <c r="B368" s="99" t="s">
         <v>894</v>
@@ -15424,7 +15424,7 @@
       <c r="N368" s="69"/>
       <c r="O368" s="69"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H369" s="24"/>
       <c r="I369" s="69"/>
       <c r="J369" s="99" t="s">
@@ -15440,7 +15440,7 @@
       <c r="N369" s="69"/>
       <c r="O369" s="69"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A370" s="69" t="s">
         <v>1000</v>
       </c>
@@ -15465,7 +15465,7 @@
       <c r="N370" s="69"/>
       <c r="O370" s="69"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A371" s="69" t="s">
         <v>895</v>
       </c>
@@ -15496,7 +15496,7 @@
       <c r="N371" s="69"/>
       <c r="O371" s="69"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A372" s="69"/>
       <c r="B372" s="69" t="s">
         <v>896</v>
@@ -15521,7 +15521,7 @@
       <c r="N372" s="69"/>
       <c r="O372" s="69"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A373" s="115"/>
       <c r="B373" s="115"/>
       <c r="C373" s="115"/>
@@ -15544,7 +15544,7 @@
       <c r="N373" s="69"/>
       <c r="O373" s="69"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A374" s="69" t="s">
         <v>717</v>
       </c>
@@ -15567,7 +15567,7 @@
       <c r="N374" s="69"/>
       <c r="O374" s="69"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A375" s="69" t="s">
         <v>899</v>
       </c>
@@ -15592,7 +15592,7 @@
       <c r="N375" s="33"/>
       <c r="O375" s="33"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A376" s="79"/>
       <c r="B376" s="69" t="s">
         <v>900</v>
@@ -15625,7 +15625,7 @@
         <v>4367</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A377" s="69"/>
       <c r="B377" s="69" t="s">
         <v>901</v>
@@ -15656,7 +15656,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A378" s="69"/>
       <c r="B378" s="69" t="s">
         <v>899</v>
@@ -15687,7 +15687,7 @@
         <v>4727</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A379" s="69"/>
       <c r="B379" s="69" t="s">
         <v>902</v>
@@ -15716,7 +15716,7 @@
       <c r="N379" s="69"/>
       <c r="O379" s="69"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A380" s="69"/>
       <c r="B380" s="69" t="s">
         <v>903</v>
@@ -15739,7 +15739,7 @@
       <c r="N380" s="33"/>
       <c r="O380" s="33"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A381" s="69"/>
       <c r="B381" s="69" t="s">
         <v>904</v>
@@ -15763,7 +15763,7 @@
       <c r="N381" s="69"/>
       <c r="O381" s="69"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A382" s="33"/>
       <c r="B382" s="33"/>
       <c r="C382" s="33"/>
@@ -15787,7 +15787,7 @@
       <c r="N382" s="69"/>
       <c r="O382" s="69"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A383" s="69" t="s">
         <v>921</v>
       </c>
@@ -15820,7 +15820,7 @@
       <c r="N383" s="69"/>
       <c r="O383" s="69"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A384" s="69" t="s">
         <v>922</v>
       </c>
@@ -15851,7 +15851,7 @@
       <c r="N384" s="69"/>
       <c r="O384" s="69"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A385" s="33"/>
       <c r="B385" s="33"/>
       <c r="C385" s="33"/>
@@ -15874,7 +15874,7 @@
       <c r="N385" s="69"/>
       <c r="O385" s="69"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A386" s="69" t="s">
         <v>925</v>
       </c>
@@ -15905,7 +15905,7 @@
       <c r="N386" s="69"/>
       <c r="O386" s="69"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A387" s="69"/>
       <c r="B387" s="69" t="s">
         <v>927</v>
@@ -15934,7 +15934,7 @@
       <c r="N387" s="69"/>
       <c r="O387" s="69"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A388" s="69"/>
       <c r="B388" s="69" t="s">
         <v>928</v>
@@ -15963,7 +15963,7 @@
       <c r="N388" s="69"/>
       <c r="O388" s="69"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A389" s="69"/>
       <c r="B389" s="69" t="s">
         <v>929</v>
@@ -15992,7 +15992,7 @@
       <c r="N389" s="69"/>
       <c r="O389" s="69"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A390" s="69"/>
       <c r="B390" s="69" t="s">
         <v>930</v>
@@ -16021,7 +16021,7 @@
       <c r="N390" s="69"/>
       <c r="O390" s="69"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A391" s="69"/>
       <c r="B391" s="69" t="s">
         <v>931</v>
@@ -16050,7 +16050,7 @@
       <c r="N391" s="69"/>
       <c r="O391" s="69"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A392" s="69"/>
       <c r="B392" s="69" t="s">
         <v>932</v>
@@ -16079,7 +16079,7 @@
       <c r="N392" s="69"/>
       <c r="O392" s="69"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A393" s="69"/>
       <c r="B393" s="69" t="s">
         <v>933</v>
@@ -16108,7 +16108,7 @@
       <c r="N393" s="69"/>
       <c r="O393" s="69"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A394" s="33"/>
       <c r="C394" s="33"/>
       <c r="D394" s="33"/>
@@ -16130,7 +16130,7 @@
       <c r="N394" s="69"/>
       <c r="O394" s="69"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A395" s="69" t="s">
         <v>934</v>
       </c>
@@ -16150,7 +16150,7 @@
       <c r="N395" s="33"/>
       <c r="O395" s="33"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A396" s="69" t="s">
         <v>935</v>
       </c>
@@ -16171,7 +16171,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A397" s="69"/>
       <c r="B397" s="69" t="s">
         <v>939</v>
@@ -16202,7 +16202,7 @@
       <c r="N397" s="69"/>
       <c r="O397" s="69"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A398" s="69"/>
       <c r="B398" s="69" t="s">
         <v>940</v>
@@ -16231,7 +16231,7 @@
       <c r="N398" s="69"/>
       <c r="O398" s="69"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A399" s="69"/>
       <c r="B399" s="69" t="s">
         <v>941</v>
@@ -16262,7 +16262,7 @@
       </c>
       <c r="O399" s="69"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A400" s="69"/>
       <c r="B400" s="69" t="s">
         <v>942</v>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="O400" s="69"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A401" s="69"/>
       <c r="B401" s="69" t="s">
         <v>943</v>
@@ -16324,7 +16324,7 @@
       </c>
       <c r="O401" s="69"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A402" s="69"/>
       <c r="B402" s="69" t="s">
         <v>944</v>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="O402" s="69"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A403" s="69"/>
       <c r="B403" s="69" t="s">
         <v>945</v>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="O403" s="69"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A404" s="69"/>
       <c r="B404" s="69" t="s">
         <v>946</v>
@@ -16402,7 +16402,7 @@
       <c r="G404" s="69"/>
       <c r="H404" s="33"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A405" s="69"/>
       <c r="B405" s="69" t="s">
         <v>947</v>
@@ -16433,7 +16433,7 @@
       <c r="N405" s="69"/>
       <c r="O405" s="69"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A406" s="69"/>
       <c r="B406" s="69" t="s">
         <v>948</v>
@@ -16462,7 +16462,7 @@
       <c r="N406" s="69"/>
       <c r="O406" s="69"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A407" s="69"/>
       <c r="B407" s="69" t="s">
         <v>949</v>
@@ -16491,7 +16491,7 @@
       <c r="N407" s="69"/>
       <c r="O407" s="69"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A408" s="69"/>
       <c r="B408" s="69" t="s">
         <v>950</v>
@@ -16522,7 +16522,7 @@
       </c>
       <c r="O408" s="69"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A409" s="33"/>
       <c r="B409" s="33"/>
       <c r="C409" s="33"/>
@@ -16545,7 +16545,7 @@
       <c r="N409" s="69"/>
       <c r="O409" s="69"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A410" s="69" t="s">
         <v>963</v>
       </c>
@@ -16570,7 +16570,7 @@
       <c r="N410" s="69"/>
       <c r="O410" s="69"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A411" s="69" t="s">
         <v>236</v>
       </c>
@@ -16603,7 +16603,7 @@
       <c r="N411" s="69"/>
       <c r="O411" s="69"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A412" s="33"/>
       <c r="B412" s="33"/>
       <c r="C412" s="33"/>
@@ -16626,7 +16626,7 @@
       <c r="N412" s="69"/>
       <c r="O412" s="69"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A413" s="69" t="s">
         <v>757</v>
       </c>
@@ -16659,7 +16659,7 @@
       <c r="N413" s="69"/>
       <c r="O413" s="69"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A414" s="69"/>
       <c r="B414" s="69" t="s">
         <v>966</v>
@@ -16690,7 +16690,7 @@
       <c r="N414" s="69"/>
       <c r="O414" s="69"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A415" s="69"/>
       <c r="B415" s="69" t="s">
         <v>967</v>
@@ -16721,7 +16721,7 @@
       <c r="N415" s="69"/>
       <c r="O415" s="69"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A416" s="69" t="s">
         <v>1099</v>
       </c>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="O416" s="69"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A417" s="69"/>
       <c r="B417" s="69" t="s">
         <v>968</v>
@@ -16789,7 +16789,7 @@
       </c>
       <c r="O417" s="69"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A418" s="69"/>
       <c r="B418" s="69" t="s">
         <v>969</v>
@@ -16814,7 +16814,7 @@
       <c r="N418" s="33"/>
       <c r="O418" s="33"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A419" s="69"/>
       <c r="B419" s="69" t="s">
         <v>970</v>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="O419" s="69"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A420" s="69"/>
       <c r="B420" s="69" t="s">
         <v>971</v>
@@ -16882,7 +16882,7 @@
       </c>
       <c r="O420" s="69"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A421" s="33"/>
       <c r="B421" s="33"/>
       <c r="C421" s="33"/>
@@ -16907,7 +16907,7 @@
       </c>
       <c r="O421" s="69"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A422" s="69" t="s">
         <v>980</v>
       </c>
@@ -16942,7 +16942,7 @@
       </c>
       <c r="O422" s="69"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A423" s="69" t="s">
         <v>981</v>
       </c>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="O423" s="69"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A424" s="69"/>
       <c r="B424" s="69" t="s">
         <v>984</v>
@@ -17010,7 +17010,7 @@
       </c>
       <c r="O424" s="69"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A425" s="69"/>
       <c r="B425" s="69" t="s">
         <v>985</v>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="O425" s="69"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H426" s="33"/>
       <c r="I426" s="33"/>
       <c r="J426" s="33"/>
@@ -17047,7 +17047,7 @@
       <c r="N426" s="33"/>
       <c r="O426" s="33"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A427" s="26" t="s">
         <v>986</v>
       </c>
@@ -17068,7 +17068,7 @@
       <c r="N427" s="69"/>
       <c r="O427" s="69"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A428" s="69" t="s">
         <v>987</v>
       </c>
@@ -17103,7 +17103,7 @@
       </c>
       <c r="O428" s="69"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A429" s="91"/>
       <c r="B429" s="69" t="s">
         <v>989</v>
@@ -17130,7 +17130,7 @@
       <c r="N429" s="69"/>
       <c r="O429" s="69"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A430" s="69"/>
       <c r="B430" s="69" t="s">
         <v>990</v>
@@ -17161,7 +17161,7 @@
       </c>
       <c r="O430" s="69"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A431" s="69"/>
       <c r="B431" s="69">
         <v>552</v>
@@ -17192,7 +17192,7 @@
       </c>
       <c r="O431" s="69"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A432" s="69"/>
       <c r="B432" s="69">
         <v>553</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="O432" s="69"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A433" s="69"/>
       <c r="B433" s="69">
         <v>554</v>
@@ -17252,7 +17252,7 @@
       </c>
       <c r="O433" s="69"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A434" s="69"/>
       <c r="B434" s="69">
         <v>555</v>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="O434" s="69"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A435" s="69"/>
       <c r="B435" s="69">
         <v>556</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="O435" s="69"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A436" s="33"/>
       <c r="B436" s="33"/>
       <c r="C436" s="33"/>
@@ -17339,7 +17339,7 @@
       </c>
       <c r="O436" s="69"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A437" s="69" t="s">
         <v>995</v>
       </c>
@@ -17364,7 +17364,7 @@
       <c r="N437" s="33"/>
       <c r="O437" s="33"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A438" s="69"/>
       <c r="B438" s="69">
         <v>676</v>
@@ -17389,7 +17389,7 @@
       <c r="N438" s="69"/>
       <c r="O438" s="69"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A439" s="69"/>
       <c r="B439" s="69">
         <v>677</v>
@@ -17420,7 +17420,7 @@
       <c r="N439" s="69"/>
       <c r="O439" s="69"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A440" s="69"/>
       <c r="B440" s="69">
         <v>497</v>
@@ -17449,7 +17449,7 @@
       <c r="N440" s="69"/>
       <c r="O440" s="69"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A441" s="69"/>
       <c r="B441" s="69">
         <v>678</v>
@@ -17478,7 +17478,7 @@
       <c r="N441" s="69"/>
       <c r="O441" s="69"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A442" s="33"/>
       <c r="B442" s="33"/>
       <c r="C442" s="33"/>
@@ -17501,7 +17501,7 @@
       <c r="N442" s="69"/>
       <c r="O442" s="69"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A443" s="33"/>
       <c r="B443" s="33"/>
       <c r="C443" s="33"/>
@@ -17524,7 +17524,7 @@
       <c r="N443" s="69"/>
       <c r="O443" s="69"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A444" s="33"/>
       <c r="B444" s="33"/>
       <c r="C444" s="33"/>
@@ -17547,7 +17547,7 @@
       <c r="N444" s="69"/>
       <c r="O444" s="69"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A445" s="33"/>
       <c r="B445" s="33"/>
       <c r="C445" s="33"/>
@@ -17564,7 +17564,7 @@
       <c r="N445" s="33"/>
       <c r="O445" s="33"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A446" s="33"/>
       <c r="B446" s="33"/>
       <c r="C446" s="33"/>
@@ -17589,7 +17589,7 @@
       <c r="N446" s="69"/>
       <c r="O446" s="69"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A447" s="33"/>
       <c r="B447" s="33"/>
       <c r="C447" s="33"/>
@@ -17614,7 +17614,7 @@
       <c r="N447" s="69"/>
       <c r="O447" s="69"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A448" s="33"/>
       <c r="B448" s="33"/>
       <c r="C448" s="33"/>
@@ -17637,7 +17637,7 @@
       <c r="N448" s="69"/>
       <c r="O448" s="69"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A449" s="33"/>
       <c r="B449" s="33"/>
       <c r="C449" s="33"/>
@@ -17660,7 +17660,7 @@
       <c r="N449" s="69"/>
       <c r="O449" s="69"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A450" s="33"/>
       <c r="B450" s="33"/>
       <c r="C450" s="33"/>
@@ -17683,7 +17683,7 @@
       <c r="N450" s="69"/>
       <c r="O450" s="69"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A451" s="33"/>
       <c r="B451" s="33"/>
       <c r="C451" s="33"/>
@@ -17706,7 +17706,7 @@
       <c r="N451" s="69"/>
       <c r="O451" s="69"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A452" s="33"/>
       <c r="B452" s="33"/>
       <c r="C452" s="33"/>
@@ -17731,7 +17731,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A453" s="33"/>
       <c r="B453" s="33"/>
       <c r="C453" s="33"/>
@@ -17748,7 +17748,7 @@
       <c r="N453" s="33"/>
       <c r="O453" s="33"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A454" s="33"/>
       <c r="B454" s="33"/>
       <c r="C454" s="33"/>
@@ -17765,7 +17765,7 @@
       <c r="N454" s="33"/>
       <c r="O454" s="33"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A455" s="33"/>
       <c r="B455" s="33"/>
       <c r="C455" s="33"/>
@@ -17782,7 +17782,7 @@
       <c r="N455" s="33"/>
       <c r="O455" s="33"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A456" s="33"/>
       <c r="B456" s="33"/>
       <c r="C456" s="33"/>
@@ -17799,7 +17799,7 @@
       <c r="N456" s="33"/>
       <c r="O456" s="33"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A457" s="33"/>
       <c r="B457" s="33"/>
       <c r="C457" s="33"/>
@@ -17816,7 +17816,7 @@
       <c r="N457" s="33"/>
       <c r="O457" s="33"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A458" s="33"/>
       <c r="B458" s="33"/>
       <c r="C458" s="33"/>
@@ -17833,7 +17833,7 @@
       <c r="N458" s="33"/>
       <c r="O458" s="33"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A459" s="33"/>
       <c r="B459" s="33"/>
       <c r="C459" s="33"/>
@@ -17850,7 +17850,7 @@
       <c r="N459" s="33"/>
       <c r="O459" s="33"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A460" s="33"/>
       <c r="B460" s="33"/>
       <c r="C460" s="33"/>
@@ -17867,7 +17867,7 @@
       <c r="N460" s="33"/>
       <c r="O460" s="33"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A461" s="33"/>
       <c r="B461" s="33"/>
       <c r="C461" s="33"/>
@@ -17884,7 +17884,7 @@
       <c r="N461" s="33"/>
       <c r="O461" s="33"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A462" s="33"/>
       <c r="B462" s="33"/>
       <c r="C462" s="33"/>
@@ -17901,7 +17901,7 @@
       <c r="N462" s="33"/>
       <c r="O462" s="33"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A463" s="33"/>
       <c r="B463" s="33"/>
       <c r="C463" s="33"/>
@@ -17918,7 +17918,7 @@
       <c r="N463" s="33"/>
       <c r="O463" s="33"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A464" s="33"/>
       <c r="B464" s="33"/>
       <c r="C464" s="33"/>
@@ -17935,7 +17935,7 @@
       <c r="N464" s="33"/>
       <c r="O464" s="33"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A465" s="33"/>
       <c r="B465" s="33"/>
       <c r="C465" s="33"/>
@@ -17952,7 +17952,7 @@
       <c r="N465" s="33"/>
       <c r="O465" s="33"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A466" s="33"/>
       <c r="B466" s="33"/>
       <c r="C466" s="33"/>
@@ -17969,7 +17969,7 @@
       <c r="N466" s="33"/>
       <c r="O466" s="33"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A467" s="33"/>
       <c r="B467" s="33"/>
       <c r="C467" s="33"/>
@@ -17986,7 +17986,7 @@
       <c r="N467" s="33"/>
       <c r="O467" s="33"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A468" s="33"/>
       <c r="B468" s="33"/>
       <c r="C468" s="33"/>
@@ -18003,7 +18003,7 @@
       <c r="N468" s="33"/>
       <c r="O468" s="33"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A469" s="33"/>
       <c r="B469" s="33"/>
       <c r="C469" s="33"/>
@@ -18020,7 +18020,7 @@
       <c r="N469" s="33"/>
       <c r="O469" s="33"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A470" s="33"/>
       <c r="B470" s="33"/>
       <c r="C470" s="33"/>
@@ -18037,7 +18037,7 @@
       <c r="N470" s="33"/>
       <c r="O470" s="33"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A471" s="33"/>
       <c r="B471" s="33"/>
       <c r="C471" s="33"/>
@@ -18054,7 +18054,7 @@
       <c r="N471" s="33"/>
       <c r="O471" s="33"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A472" s="33"/>
       <c r="B472" s="33"/>
       <c r="C472" s="33"/>
@@ -18071,7 +18071,7 @@
       <c r="N472" s="33"/>
       <c r="O472" s="33"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A473" s="33"/>
       <c r="B473" s="33"/>
       <c r="C473" s="33"/>
@@ -18088,7 +18088,7 @@
       <c r="N473" s="33"/>
       <c r="O473" s="33"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A474" s="33"/>
       <c r="B474" s="33"/>
       <c r="C474" s="33"/>
@@ -18105,7 +18105,7 @@
       <c r="N474" s="33"/>
       <c r="O474" s="33"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A475" s="33"/>
       <c r="B475" s="33"/>
       <c r="C475" s="33"/>
@@ -18122,7 +18122,7 @@
       <c r="N475" s="33"/>
       <c r="O475" s="33"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A476" s="33"/>
       <c r="B476" s="33"/>
       <c r="C476" s="33"/>
@@ -18139,7 +18139,7 @@
       <c r="N476" s="33"/>
       <c r="O476" s="33"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A477" s="33"/>
       <c r="B477" s="33"/>
       <c r="C477" s="33"/>
@@ -18156,7 +18156,7 @@
       <c r="N477" s="33"/>
       <c r="O477" s="33"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A478" s="33"/>
       <c r="B478" s="33"/>
       <c r="C478" s="33"/>
@@ -18173,7 +18173,7 @@
       <c r="N478" s="33"/>
       <c r="O478" s="33"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A479" s="33"/>
       <c r="B479" s="33"/>
       <c r="C479" s="33"/>
@@ -18190,7 +18190,7 @@
       <c r="N479" s="33"/>
       <c r="O479" s="33"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A480" s="33"/>
       <c r="B480" s="33"/>
       <c r="C480" s="33"/>
@@ -18207,7 +18207,7 @@
       <c r="N480" s="33"/>
       <c r="O480" s="33"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A481" s="33"/>
       <c r="B481" s="33"/>
       <c r="C481" s="33"/>
@@ -18224,7 +18224,7 @@
       <c r="N481" s="33"/>
       <c r="O481" s="33"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A482" s="33"/>
       <c r="B482" s="33"/>
       <c r="C482" s="33"/>
@@ -18241,7 +18241,7 @@
       <c r="N482" s="33"/>
       <c r="O482" s="33"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A483" s="33"/>
       <c r="B483" s="33"/>
       <c r="C483" s="33"/>
@@ -18258,7 +18258,7 @@
       <c r="N483" s="33"/>
       <c r="O483" s="33"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A484" s="33"/>
       <c r="B484" s="33"/>
       <c r="C484" s="33"/>
@@ -18275,7 +18275,7 @@
       <c r="N484" s="33"/>
       <c r="O484" s="33"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A485" s="33"/>
       <c r="B485" s="33"/>
       <c r="C485" s="33"/>
@@ -18292,7 +18292,7 @@
       <c r="N485" s="33"/>
       <c r="O485" s="33"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A486" s="33"/>
       <c r="B486" s="33"/>
       <c r="C486" s="33"/>
@@ -18309,7 +18309,7 @@
       <c r="N486" s="33"/>
       <c r="O486" s="33"/>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A487" s="33"/>
       <c r="B487" s="33"/>
       <c r="C487" s="33"/>
@@ -18326,7 +18326,7 @@
       <c r="N487" s="33"/>
       <c r="O487" s="33"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H488" s="33"/>
       <c r="I488" s="33"/>
       <c r="J488" s="33"/>
@@ -18336,7 +18336,7 @@
       <c r="N488" s="33"/>
       <c r="O488" s="33"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H489" s="33"/>
       <c r="I489" s="33"/>
       <c r="J489" s="33"/>
@@ -18346,7 +18346,7 @@
       <c r="N489" s="33"/>
       <c r="O489" s="33"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H490" s="33"/>
       <c r="I490" s="33"/>
       <c r="J490" s="33"/>
@@ -18356,7 +18356,7 @@
       <c r="N490" s="33"/>
       <c r="O490" s="33"/>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H491" s="33"/>
       <c r="I491" s="33"/>
       <c r="J491" s="33"/>
@@ -18366,7 +18366,7 @@
       <c r="N491" s="33"/>
       <c r="O491" s="33"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H492" s="33"/>
       <c r="I492" s="33"/>
       <c r="J492" s="33"/>
@@ -18376,7 +18376,7 @@
       <c r="N492" s="33"/>
       <c r="O492" s="33"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H493" s="33"/>
       <c r="I493" s="33"/>
       <c r="J493" s="33"/>
@@ -18386,25 +18386,25 @@
       <c r="N493" s="33"/>
       <c r="O493" s="33"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H494" s="33"/>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H495" s="33"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H496" s="33"/>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H497" s="33"/>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H498" s="33"/>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H499" s="33"/>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H500" s="33"/>
     </row>
   </sheetData>
